--- a/output.xlsx
+++ b/output.xlsx
@@ -3,7 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="eau de surface" sheetId="1" r:id="rId1"/>
+    <sheet name="Eau souterraine" sheetId="2" r:id="rId2"/>
+    <sheet name="Lac et barrage" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,9 +441,6 @@
       <c r="L1" t="str">
         <v>longitude</v>
       </c>
-      <c r="M1" t="str">
-        <v>__EMPTY_2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -519,214 +518,991 @@
         <v>3397136.767</v>
       </c>
     </row>
-    <row r="4" xml:space="preserve">
+    <row r="4">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>92160</v>
+      </c>
+      <c r="C4">
+        <v>399000</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Station Immi mikki</v>
+      </c>
+      <c r="E4" t="str">
+        <v>55/60</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Tamraght</v>
+      </c>
+      <c r="G4" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Agadir Ida Outanane</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Aourir</v>
+      </c>
+      <c r="J4" t="str">
+        <v>débit faibe Coordonnée corrigée</v>
+      </c>
+      <c r="K4">
+        <v>437643.377</v>
+      </c>
+      <c r="L4">
+        <v>3376957.696</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>139866</v>
+      </c>
+      <c r="C5">
+        <v>421880</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Station Aguenza</v>
+      </c>
+      <c r="E5" t="str">
+        <v>597/64</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Issen</v>
+      </c>
+      <c r="G5" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Argana</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Coordonnée corrigée</v>
+      </c>
+      <c r="K5">
+        <v>484610.072</v>
+      </c>
+      <c r="L5">
+        <v>3401303.561</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>148835</v>
+      </c>
+      <c r="C6">
+        <v>432514</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Station AMSOUL</v>
+      </c>
+      <c r="E6" t="str">
+        <v>594/61</v>
+      </c>
+      <c r="F6" t="str">
+        <v>afl, lssen</v>
+      </c>
+      <c r="G6" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Chichaoua</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Timzgadiouine</v>
+      </c>
+      <c r="J6" t="str">
+        <v>débit très faible</v>
+      </c>
+      <c r="K6">
+        <v>493242.334</v>
+      </c>
+      <c r="L6">
+        <v>3412209.048</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>106800</v>
+      </c>
+      <c r="C7">
+        <v>380380</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Station Ait Melloul</v>
+      </c>
+      <c r="E7" t="str">
+        <v>4340/70</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Aval Souss</v>
+      </c>
+      <c r="G7" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Inezgane Ait Melloul</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Ait Melloul</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Présence des Rejets</v>
+      </c>
+      <c r="K7">
+        <v>452852.719</v>
+      </c>
+      <c r="L7">
+        <v>3358801.974</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>259348</v>
+      </c>
+      <c r="C8">
+        <v>394552</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Station Taliouine</v>
+      </c>
+      <c r="E8" t="str">
+        <v>625/71</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Zagmouzen</v>
+      </c>
+      <c r="G8" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Taliouine</v>
+      </c>
+      <c r="J8" t="str">
+        <v>débit  faible</v>
+      </c>
+      <c r="K8">
+        <v>604873.025</v>
+      </c>
+      <c r="L8">
+        <v>3377723.665</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>236100</v>
+      </c>
+      <c r="C9">
+        <v>414050</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Pont Aoulouz</v>
+      </c>
+      <c r="E9" t="str">
+        <v>203/62</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Souss Amont</v>
+      </c>
+      <c r="G9" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Aoulouz</v>
+      </c>
+      <c r="J9" t="str">
+        <v>débit moyen</v>
+      </c>
+      <c r="K9">
+        <v>581026.106</v>
+      </c>
+      <c r="L9">
+        <v>3396482.229</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>164130</v>
+      </c>
+      <c r="C10">
+        <v>386357</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Pont Taroudant</v>
+      </c>
+      <c r="E10" t="str">
+        <v>359/70</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Souss</v>
+      </c>
+      <c r="G10" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Oued A SEC</v>
+      </c>
+      <c r="K10">
+        <v>509964.012</v>
+      </c>
+      <c r="L10">
+        <v>3366557.812</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>124973</v>
+      </c>
+      <c r="C11">
+        <v>325660</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Station N'Guerf</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2687/79</v>
+      </c>
+      <c r="F11" t="str">
+        <v>N’guerf</v>
+      </c>
+      <c r="G11" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Tiznit</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Ait Moussa</v>
+      </c>
+      <c r="J11" t="str">
+        <v>débit très faible</v>
+      </c>
+      <c r="K11">
+        <v>472716.956</v>
+      </c>
+      <c r="L11">
+        <v>3304675.199</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>94750</v>
+      </c>
+      <c r="C12">
+        <v>329175</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Canal Massa</v>
+      </c>
+      <c r="E12" t="str">
+        <v>322/78</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Massa</v>
+      </c>
+      <c r="G12" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Tiznit</v>
+      </c>
+      <c r="I12" t="str">
+        <v>El Maader</v>
+      </c>
+      <c r="J12" t="str">
+        <v>prélèvement au niveau de la digue</v>
+      </c>
+      <c r="K12">
+        <v>442399.438</v>
+      </c>
+      <c r="L12">
+        <v>3307248.427</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>173040</v>
+      </c>
+      <c r="C13">
+        <v>392320</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Canal Freija</v>
+      </c>
+      <c r="E13" t="str">
+        <v>4365/70</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Souss</v>
+      </c>
+      <c r="G13" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Freija</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Canal A SEC</v>
+      </c>
+      <c r="K13">
+        <v>518682.953</v>
+      </c>
+      <c r="L13">
+        <v>3372794.827</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>101380</v>
+      </c>
+      <c r="C14">
+        <v>298140</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Station Ouigane</v>
+      </c>
+      <c r="E14" t="str">
+        <v>810/78</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Tazeroualt</v>
+      </c>
+      <c r="G14" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Tiznit</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Tighmi</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Oued A SEC</v>
+      </c>
+      <c r="K14">
+        <v>449992.012</v>
+      </c>
+      <c r="L14">
+        <v>3276434.451</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>88118</v>
+      </c>
+      <c r="C15">
+        <v>339329</v>
+      </c>
+      <c r="D15" t="str">
+        <v xml:space="preserve">Puits Assocition du douar  Tikioute </v>
+      </c>
+      <c r="E15" t="str">
+        <v>1019/69</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Puits équipé</v>
+      </c>
+      <c r="G15" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Chtouka Ait Baha</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Massa</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Nom et Coordonnée corrigée</v>
+      </c>
+      <c r="K15">
+        <v>435454.914</v>
+      </c>
+      <c r="L15">
+        <v>3317191.493</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>82</v>
+      </c>
+      <c r="B16">
+        <v>133380</v>
+      </c>
+      <c r="C16">
+        <v>309240</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Station Amaghous</v>
+      </c>
+      <c r="E16" t="str">
+        <v>1276/79</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Amaghous</v>
+      </c>
+      <c r="G16" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Tiznit</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Tnine aday</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Oued A SEC</v>
+      </c>
+      <c r="K16">
+        <v>481630.683</v>
+      </c>
+      <c r="L16">
+        <v>3288525.087</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>86</v>
+      </c>
+      <c r="B17">
+        <v>83729</v>
+      </c>
+      <c r="C17">
+        <v>288235</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Station Talaint</v>
+      </c>
+      <c r="E17" t="str">
+        <v>1221/78</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Adoudou</v>
+      </c>
+      <c r="G17" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Tiznit</v>
+      </c>
+      <c r="I17" t="str">
+        <v>reggada</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Oued A SEC</v>
+      </c>
+      <c r="K17">
+        <v>432657.811</v>
+      </c>
+      <c r="L17">
+        <v>3265984.319</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>95</v>
+      </c>
+      <c r="B18">
+        <v>260509</v>
+      </c>
+      <c r="C18">
+        <v>429719</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Station Iguidi</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1008/62</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Tifnout</v>
+      </c>
+      <c r="G18" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I18" t="str">
+        <v>lguidi</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Débit important</v>
+      </c>
+      <c r="K18">
+        <v>604928.845</v>
+      </c>
+      <c r="L18">
+        <v>3412908.435</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>96</v>
+      </c>
+      <c r="B19">
+        <v>249400</v>
+      </c>
+      <c r="C19">
+        <v>416700</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Station Immerguene</v>
+      </c>
+      <c r="E19" t="str">
+        <v>642/62</v>
+      </c>
+      <c r="F19" t="str">
+        <v>lmmerguene</v>
+      </c>
+      <c r="G19" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Ouzioua</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Débit moyen</v>
+      </c>
+      <c r="K19">
+        <v>594235.302</v>
+      </c>
+      <c r="L19">
+        <v>3399547.875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <v>220110</v>
+      </c>
+      <c r="C20">
+        <v>420330</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Station lamdad</v>
+      </c>
+      <c r="E20" t="str">
+        <v>114/62</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Lamdad</v>
+      </c>
+      <c r="G20" t="str">
+        <v>eau de surface</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I20" t="str">
+        <v>sidi ouaziz</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Débit faible et coordonnée corrigée</v>
+      </c>
+      <c r="K20">
+        <v>564849.119</v>
+      </c>
+      <c r="L20">
+        <v>3402257.483</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L20"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>X</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Station</v>
+      </c>
+      <c r="E1" t="str">
+        <v>IRE</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Oued</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Nature</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Province</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Commune</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Observation</v>
+      </c>
+      <c r="K1" t="str">
+        <v>latitude</v>
+      </c>
+      <c r="L1" t="str">
+        <v>longitude</v>
+      </c>
+      <c r="M1" t="str">
+        <v>__EMPTY_2</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B2">
         <v>73894</v>
       </c>
-      <c r="C4">
+      <c r="C2">
         <v>419756</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D2" t="str">
         <v>Puits  Ferme à Tamri</v>
       </c>
-      <c r="E4" t="str" xml:space="preserve">
+      <c r="E2" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 NP</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F2" t="str">
         <v>Puits équipé</v>
       </c>
-      <c r="G4" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H4" t="str">
+      <c r="G2" t="str">
+        <v>Eau souterraine</v>
+      </c>
+      <c r="H2" t="str">
         <v>Agadir  Ida  Outanane</v>
       </c>
-      <c r="I4" t="str" xml:space="preserve">
+      <c r="I2" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000d_
 Tamri</v>
       </c>
+      <c r="J2" t="str">
+        <v>Coordonnée corrigée</v>
+      </c>
+      <c r="K2">
+        <v>418745.508</v>
+      </c>
+      <c r="L2">
+        <v>3397136.767</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>90019</v>
+      </c>
+      <c r="C3">
+        <v>396885</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Puits Zammour Omar</v>
+      </c>
+      <c r="E3" t="str">
+        <v>61/50</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Puits équipé</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Eau souterraine</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Agadir Ida  Outanane</v>
+      </c>
+      <c r="I3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Aourir_x000d_
+</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Coordonnée corrigée</v>
+      </c>
+      <c r="K3">
+        <v>435569.091</v>
+      </c>
+      <c r="L3">
+        <v>3374777.539</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>121852</v>
+      </c>
+      <c r="C4">
+        <v>383597</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Forage Association Afous Roufouse</v>
+      </c>
+      <c r="E4" t="str">
+        <v>6187/70</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Forage équipé</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Eau souterraine</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Agadir Ida Outanane</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Drargua</v>
+      </c>
       <c r="J4" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K4">
-        <v>418745.508</v>
+        <v>467796.457</v>
       </c>
       <c r="L4">
-        <v>3397136.767</v>
+        <v>3362484.538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>92160</v>
+        <v>110912</v>
       </c>
       <c r="C5">
-        <v>399000</v>
+        <v>383030</v>
       </c>
       <c r="D5" t="str">
-        <v>Station Immi mikki</v>
+        <v>Forage Association Tiouiiza du douar Taggadirt N' aabadou</v>
       </c>
       <c r="E5" t="str">
-        <v>55/60</v>
+        <v>5974/70</v>
       </c>
       <c r="F5" t="str">
-        <v>Tamraght</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G5" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H5" t="str">
         <v>Agadir Ida Outanane</v>
       </c>
       <c r="I5" t="str">
-        <v>Aourir</v>
+        <v>Drargua</v>
       </c>
       <c r="J5" t="str">
-        <v>débit faibe Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K5">
-        <v>437643.377</v>
+        <v>456880.203</v>
       </c>
       <c r="L5">
-        <v>3376957.696</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
+        <v>3361578.152</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>90019</v>
+        <v>100610</v>
       </c>
       <c r="C6">
-        <v>396885</v>
+        <v>384423</v>
       </c>
       <c r="D6" t="str">
-        <v>Puits Zammour Omar</v>
+        <v>Forage Résidence Anarouz</v>
       </c>
       <c r="E6" t="str">
-        <v>61/50</v>
+        <v>1151/69</v>
       </c>
       <c r="F6" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G6" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H6" t="str">
-        <v>Agadir Ida  Outanane</v>
-      </c>
-      <c r="I6" t="str" xml:space="preserve">
-        <v xml:space="preserve">Aourir_x000d_
-</v>
+        <v>Agadir Ida Outanane</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Municipalitê Agadir</v>
       </c>
       <c r="J6" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K6">
-        <v>435569.091</v>
+        <v>446540.636</v>
       </c>
       <c r="L6">
-        <v>3374777.539</v>
+        <v>3362650.699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>121852</v>
+        <v>99700</v>
       </c>
       <c r="C7">
-        <v>383597</v>
+        <v>372700</v>
       </c>
       <c r="D7" t="str">
-        <v>Forage Association Afous Roufouse</v>
+        <v>Puits maison forestière Rekhein</v>
       </c>
       <c r="E7" t="str">
-        <v>6187/70</v>
+        <v>471/69</v>
       </c>
       <c r="F7" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G7" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H7" t="str">
-        <v>Agadir Ida Outanane</v>
+        <v>Inezgane   Ait Melloui</v>
       </c>
       <c r="I7" t="str">
-        <v>Drargua</v>
+        <v>EL Kolea</v>
       </c>
       <c r="J7" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K7">
-        <v>467796.457</v>
+        <v>445994.874</v>
       </c>
       <c r="L7">
-        <v>3362484.538</v>
+        <v>3350905.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>110912</v>
+        <v>259163</v>
       </c>
       <c r="C8">
-        <v>383030</v>
+        <v>394698</v>
       </c>
       <c r="D8" t="str">
-        <v>Forage Association Tiouiiza du douar Taggadirt N' aabadou</v>
+        <v>Puits Haj Bahassi</v>
       </c>
       <c r="E8" t="str">
-        <v>5974/70</v>
+        <v>SH 366/71</v>
       </c>
       <c r="F8" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G8" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H8" t="str">
-        <v>Agadir Ida Outanane</v>
+        <v>Taroudant</v>
       </c>
       <c r="I8" t="str">
-        <v>Drargua</v>
+        <v>Taliouine</v>
       </c>
       <c r="J8" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K8">
-        <v>456880.203</v>
+        <v>604683.535</v>
       </c>
       <c r="L8">
-        <v>3361578.152</v>
+        <v>3377863.792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>100610</v>
+        <v>135305</v>
       </c>
       <c r="C9">
-        <v>384423</v>
+        <v>393966</v>
       </c>
       <c r="D9" t="str">
-        <v>Forage Résidence Anarouz</v>
+        <v>Forage Himmed el Mahjoub</v>
       </c>
       <c r="E9" t="str">
-        <v>1151/69</v>
+        <v>4892/70</v>
       </c>
       <c r="F9" t="str">
         <v>Forage équipé</v>
@@ -735,229 +1511,223 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H9" t="str">
-        <v>Agadir Ida Outanane</v>
+        <v>Taroudant</v>
       </c>
       <c r="I9" t="str">
-        <v>Municipalitê Agadir</v>
+        <v>Sidi Moussa el hamri</v>
       </c>
       <c r="J9" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K9">
-        <v>446540.636</v>
+        <v>480919.449</v>
       </c>
       <c r="L9">
-        <v>3362650.699</v>
+        <v>3373265.481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>139866</v>
+        <v>131310</v>
       </c>
       <c r="C10">
-        <v>421880</v>
+        <v>383930</v>
       </c>
       <c r="D10" t="str">
-        <v>Station Aguenza</v>
+        <v>Forage Mohamed Souiri</v>
       </c>
       <c r="E10" t="str">
-        <v>597/64</v>
+        <v>5836/7 0</v>
       </c>
       <c r="F10" t="str">
-        <v>Issen</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G10" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H10" t="str">
         <v>Taroudant</v>
       </c>
       <c r="I10" t="str">
-        <v>Argana</v>
+        <v>Sidi Boumoussa</v>
       </c>
       <c r="J10" t="str">
         <v>Coordonnée corrigée</v>
       </c>
       <c r="K10">
-        <v>484610.072</v>
+        <v>477238.705</v>
       </c>
       <c r="L10">
-        <v>3401303.561</v>
+        <v>3363111.207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>148835</v>
+        <v>129475</v>
       </c>
       <c r="C11">
-        <v>432514</v>
+        <v>383268</v>
       </c>
       <c r="D11" t="str">
-        <v>Station AMSOUL</v>
+        <v>Forage Association Lahmadate</v>
       </c>
       <c r="E11" t="str">
-        <v>594/61</v>
+        <v>3408/70</v>
       </c>
       <c r="F11" t="str">
-        <v>afl, lssen</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G11" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H11" t="str">
-        <v>Chichaoua</v>
+        <v>Taroudant</v>
       </c>
       <c r="I11" t="str">
-        <v>Timzgadiouine</v>
+        <v>Sidi Boumoussa</v>
       </c>
       <c r="J11" t="str">
-        <v>débit très faible</v>
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K11">
-        <v>493242.334</v>
+        <v>475425.332</v>
       </c>
       <c r="L11">
-        <v>3412209.048</v>
+        <v>3362392.561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>106800</v>
+        <v>102882</v>
       </c>
       <c r="C12">
-        <v>380380</v>
+        <v>392059</v>
       </c>
       <c r="D12" t="str">
-        <v>Station Ait Melloul</v>
-      </c>
-      <c r="E12" t="str">
-        <v>4340/70</v>
+        <v>Forage Ait Ahmed</v>
       </c>
       <c r="F12" t="str">
-        <v>Aval Souss</v>
+        <v>Forage Artesien</v>
       </c>
       <c r="G12" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H12" t="str">
-        <v>Inezgane Ait Melloul</v>
+        <v>Agadir ida outanane</v>
       </c>
       <c r="I12" t="str">
-        <v>Ait Melloul</v>
+        <v>Drargua</v>
       </c>
       <c r="J12" t="str">
-        <v>Présence des Rejets</v>
+        <v>Forage remplace Puits 1152/69 qui est abandonné</v>
       </c>
       <c r="K12">
-        <v>452852.719</v>
+        <v>448574.527</v>
       </c>
       <c r="L12">
-        <v>3358801.974</v>
+        <v>3370352.953</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>99700</v>
+        <v>107186</v>
       </c>
       <c r="C13">
-        <v>372700</v>
+        <v>382525</v>
       </c>
       <c r="D13" t="str">
-        <v>Puits maison forestière Rekhein</v>
-      </c>
-      <c r="E13" t="str">
-        <v>471/69</v>
+        <v>Forage pépinière Drargua (Haj Miloud)</v>
       </c>
       <c r="F13" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G13" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H13" t="str">
-        <v>Inezgane   Ait Melloui</v>
+        <v>Agadir ida outanane</v>
       </c>
       <c r="I13" t="str">
-        <v>EL Kolea</v>
+        <v>Drargua</v>
       </c>
       <c r="J13" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Forage remplace Forage SB 6171/70 avec pompe en panne</v>
       </c>
       <c r="K13">
-        <v>445994.874</v>
+        <v>453171.934</v>
       </c>
       <c r="L13">
-        <v>3350905.71</v>
+        <v>3360957.78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>259348</v>
+        <v>147800</v>
       </c>
       <c r="C14">
-        <v>394552</v>
+        <v>372444</v>
       </c>
       <c r="D14" t="str">
-        <v>Station Taliouine</v>
-      </c>
-      <c r="E14" t="str">
-        <v>625/71</v>
+        <v>Forage Association Salam douar Nbikka</v>
+      </c>
+      <c r="E14">
+        <v>614</v>
       </c>
       <c r="F14" t="str">
-        <v>Zagmouzen</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G14" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H14" t="str">
         <v>Taroudant</v>
       </c>
       <c r="I14" t="str">
-        <v>Taliouine</v>
+        <v>Ah Rmal</v>
       </c>
       <c r="J14" t="str">
-        <v>débit  faible</v>
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K14">
-        <v>604873.025</v>
+        <v>494076.488</v>
       </c>
       <c r="L14">
-        <v>3377723.665</v>
+        <v>3352144.534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>259163</v>
+        <v>152155</v>
       </c>
       <c r="C15">
-        <v>394698</v>
+        <v>381306</v>
       </c>
       <c r="D15" t="str">
-        <v>Puits Haj Bahassi</v>
+        <v>Forage Irrigation Sebt el Guerdane</v>
       </c>
       <c r="E15" t="str">
-        <v>SH 366/71</v>
+        <v>R-6084/70</v>
       </c>
       <c r="F15" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G15" t="str">
         <v>Eau souterraine</v>
@@ -966,74 +1736,71 @@
         <v>Taroudant</v>
       </c>
       <c r="I15" t="str">
-        <v>Taliouine</v>
+        <v>Sebt ELGuerdane</v>
       </c>
       <c r="J15" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Forage remplace Forage AEP ONEE-BO</v>
       </c>
       <c r="K15">
-        <v>604683.535</v>
+        <v>498153.252</v>
       </c>
       <c r="L15">
-        <v>3377863.792</v>
+        <v>3361136.982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>236100</v>
+        <v>162450</v>
       </c>
       <c r="C16">
-        <v>414050</v>
+        <v>382550</v>
       </c>
       <c r="D16" t="str">
-        <v>Pont Aoulouz</v>
+        <v>Forage domaine royal Kdima                          (SP52 ou secteur 5)</v>
       </c>
       <c r="E16" t="str">
-        <v>203/62</v>
+        <v>4985/70</v>
       </c>
       <c r="F16" t="str">
-        <v>Souss Amont</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G16" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H16" t="str">
         <v>Taroudant</v>
       </c>
       <c r="I16" t="str">
-        <v>Aoulouz</v>
-      </c>
-      <c r="J16" t="str">
-        <v>débit moyen</v>
+        <v>M’chraa el ain</v>
       </c>
       <c r="K16">
-        <v>581026.106</v>
+        <v>508403.546</v>
       </c>
       <c r="L16">
-        <v>3396482.229</v>
+        <v>3362700.727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>135305</v>
+        <v>146290</v>
       </c>
       <c r="C17">
-        <v>393966</v>
+        <v>385330</v>
       </c>
       <c r="D17" t="str">
-        <v>Forage Himmed el Mahjoub</v>
+        <v>Puits Association El Fellah du douar Bouaassida</v>
       </c>
       <c r="E17" t="str">
-        <v>4892/70</v>
+        <v>2586/70</v>
       </c>
       <c r="F17" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G17" t="str">
         <v>Eau souterraine</v>
@@ -1042,36 +1809,33 @@
         <v>Taroudant</v>
       </c>
       <c r="I17" t="str">
-        <v>Sidi Moussa el hamri</v>
-      </c>
-      <c r="J17" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>El KOudia el bida</v>
       </c>
       <c r="K17">
-        <v>480919.449</v>
+        <v>492166.471</v>
       </c>
       <c r="L17">
-        <v>3373265.481</v>
+        <v>3364976.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>131310</v>
+        <v>156183</v>
       </c>
       <c r="C18">
-        <v>383930</v>
+        <v>388835</v>
       </c>
       <c r="D18" t="str">
-        <v>Forage Mohamed Souiri</v>
+        <v>Puits Association douar Lebaida</v>
       </c>
       <c r="E18" t="str">
-        <v>5836/7 0</v>
+        <v>5022/70</v>
       </c>
       <c r="F18" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G18" t="str">
         <v>Eau souterraine</v>
@@ -1080,141 +1844,147 @@
         <v>Taroudant</v>
       </c>
       <c r="I18" t="str">
-        <v>Sidi Boumoussa</v>
+        <v>Hmer Lglacha</v>
       </c>
       <c r="J18" t="str">
         <v>Coordonnée corrigée</v>
       </c>
       <c r="K18">
-        <v>477238.705</v>
+        <v>501944.568</v>
       </c>
       <c r="L18">
-        <v>3363111.207</v>
+        <v>3368786.922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>129475</v>
+        <v>95864</v>
       </c>
       <c r="C19">
-        <v>383268</v>
+        <v>331340</v>
       </c>
       <c r="D19" t="str">
-        <v>Forage Association Lahmadate</v>
+        <v>Puits public douar ait oumribt</v>
       </c>
       <c r="E19" t="str">
-        <v>3408/70</v>
+        <v>1210/78</v>
       </c>
       <c r="F19" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G19" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H19" t="str">
-        <v>Taroudant</v>
+        <v>Tiznit</v>
       </c>
       <c r="I19" t="str">
-        <v>Sidi Boumoussa</v>
+        <v>EL maâder</v>
       </c>
       <c r="J19" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K19">
-        <v>475425.332</v>
+        <v>443445.592</v>
       </c>
       <c r="L19">
-        <v>3362392.561</v>
+        <v>3309447.039</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>102882</v>
+        <v>193630</v>
       </c>
       <c r="C20">
-        <v>392059</v>
+        <v>399964</v>
       </c>
       <c r="D20" t="str">
-        <v>Forage Ait Ahmed</v>
+        <v>Domaine Ouled Aissa ( Forage n 1) (Ferme My Abde hart )</v>
+      </c>
+      <c r="E20" t="str">
+        <v>SM  89/6</v>
       </c>
       <c r="F20" t="str">
-        <v>Forage Artesien</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G20" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H20" t="str">
-        <v>Agadir ida outanane</v>
+        <v>Taroudant</v>
       </c>
       <c r="I20" t="str">
-        <v>Drargua</v>
+        <v>Ouled Aissa</v>
       </c>
       <c r="J20" t="str">
-        <v>Forage remplace Puits 1152/69 qui est abandonné</v>
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K20">
-        <v>448574.527</v>
+        <v>539022.127</v>
       </c>
       <c r="L20">
-        <v>3370352.953</v>
+        <v>3381076.357</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>107186</v>
+        <v>204445</v>
       </c>
       <c r="C21">
-        <v>382525</v>
+        <v>400075</v>
       </c>
       <c r="D21" t="str">
-        <v>Forage pépinière Drargua (Haj Miloud)</v>
+        <v>Forage Rzagna 4</v>
+      </c>
+      <c r="E21" t="str">
+        <v>401/62</v>
       </c>
       <c r="F21" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G21" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H21" t="str">
-        <v>Agadir ida outanane</v>
+        <v>Taroudant</v>
       </c>
       <c r="I21" t="str">
-        <v>Drargua</v>
+        <v>Lamhara</v>
       </c>
       <c r="J21" t="str">
-        <v>Forage remplace Forage SB 6171/70 avec pompe en panne</v>
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K21">
-        <v>453171.934</v>
+        <v>549827.159</v>
       </c>
       <c r="L21">
-        <v>3360957.78</v>
+        <v>3381525.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>147800</v>
+        <v>200901</v>
       </c>
       <c r="C22">
-        <v>372444</v>
+        <v>400591</v>
       </c>
       <c r="D22" t="str">
-        <v>Forage Association Salam douar Nbikka</v>
-      </c>
-      <c r="E22">
-        <v>614</v>
+        <v>Forage Association du douar Laassakra</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2297/61</v>
       </c>
       <c r="F22" t="str">
         <v>Puits équipé</v>
@@ -1226,36 +1996,36 @@
         <v>Taroudant</v>
       </c>
       <c r="I22" t="str">
-        <v>Ah Rmal</v>
+        <v>Tinzert</v>
       </c>
       <c r="J22" t="str">
         <v>Coordonnée corrigée</v>
       </c>
       <c r="K22">
-        <v>494076.488</v>
+        <v>546269.162</v>
       </c>
       <c r="L22">
-        <v>3352144.534</v>
+        <v>3381930</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>152155</v>
+        <v>179072</v>
       </c>
       <c r="C23">
-        <v>381306</v>
+        <v>390858</v>
       </c>
       <c r="D23" t="str">
-        <v>Forage Irrigation Sebt el Guerdane</v>
+        <v>Puits public du douar Oulad Maassoud</v>
       </c>
       <c r="E23" t="str">
-        <v>R-6084/70</v>
+        <v>40/70</v>
       </c>
       <c r="F23" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G23" t="str">
         <v>Eau souterraine</v>
@@ -1264,33 +2034,33 @@
         <v>Taroudant</v>
       </c>
       <c r="I23" t="str">
-        <v>Sebt ELGuerdane</v>
+        <v>Freija</v>
       </c>
       <c r="J23" t="str">
-        <v>Forage remplace Forage AEP ONEE-BO</v>
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K23">
-        <v>498153.252</v>
+        <v>524756.918</v>
       </c>
       <c r="L23">
-        <v>3361136.982</v>
+        <v>3371521.708</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>162450</v>
+        <v>180482</v>
       </c>
       <c r="C24">
-        <v>382550</v>
+        <v>393557</v>
       </c>
       <c r="D24" t="str">
-        <v>Forage domaine royal Kdima                          (SP52 ou secteur 5)</v>
+        <v>Forage périmetre agricole oulad Bouriouss 2</v>
       </c>
       <c r="E24" t="str">
-        <v>4985/70</v>
+        <v>4731/70</v>
       </c>
       <c r="F24" t="str">
         <v>Forage équipé</v>
@@ -1302,68 +2072,71 @@
         <v>Taroudant</v>
       </c>
       <c r="I24" t="str">
-        <v>M’chraa el ain</v>
+        <v>Freija</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K24">
-        <v>508403.546</v>
+        <v>526081.929</v>
       </c>
       <c r="L24">
-        <v>3362700.727</v>
+        <v>3374263.055</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>164130</v>
+        <v>174678</v>
       </c>
       <c r="C25">
-        <v>386357</v>
+        <v>393911</v>
       </c>
       <c r="D25" t="str">
-        <v>Pont Taroudant</v>
+        <v>Forage station de pompage ait Yaazza</v>
       </c>
       <c r="E25" t="str">
-        <v>359/70</v>
+        <v>1677/70</v>
       </c>
       <c r="F25" t="str">
-        <v>Souss</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G25" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H25" t="str">
         <v>Taroudant</v>
       </c>
       <c r="I25" t="str">
-        <v>Taroudant</v>
+        <v>Freija</v>
       </c>
       <c r="J25" t="str">
-        <v>Oued A SEC</v>
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K25">
-        <v>509964.012</v>
+        <v>520270.385</v>
       </c>
       <c r="L25">
-        <v>3366557.812</v>
+        <v>3374435.916</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>146290</v>
+        <v>166298</v>
       </c>
       <c r="C26">
-        <v>385330</v>
+        <v>396782</v>
       </c>
       <c r="D26" t="str">
-        <v>Puits Association El Fellah du douar Bouaassida</v>
+        <v>Puits N’Ait Ouaali (puits n° 1)</v>
       </c>
       <c r="E26" t="str">
-        <v>2586/70</v>
+        <v>887/61</v>
       </c>
       <c r="F26" t="str">
         <v>Puits équipé</v>
@@ -1375,30 +2148,33 @@
         <v>Taroudant</v>
       </c>
       <c r="I26" t="str">
-        <v>El KOudia el bida</v>
+        <v>Taroudant</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K26">
-        <v>492166.471</v>
+        <v>511806.024</v>
       </c>
       <c r="L26">
-        <v>3364976.16</v>
+        <v>3377044.075</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>156183</v>
+        <v>168950</v>
       </c>
       <c r="C27">
-        <v>388835</v>
+        <v>392050</v>
       </c>
       <c r="D27" t="str">
-        <v>Puits Association douar Lebaida</v>
+        <v>Domaine  Elbora (SP1) (Ferme my Hicham)</v>
       </c>
       <c r="E27" t="str">
-        <v>5022/70</v>
+        <v>823/70</v>
       </c>
       <c r="F27" t="str">
         <v>Puits équipé</v>
@@ -1410,112 +2186,106 @@
         <v>Taroudant</v>
       </c>
       <c r="I27" t="str">
-        <v>Hmer Lglacha</v>
-      </c>
-      <c r="J27" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Igoudar Lmnabha</v>
       </c>
       <c r="K27">
-        <v>501944.568</v>
+        <v>514603.821</v>
       </c>
       <c r="L27">
-        <v>3368786.922</v>
+        <v>3372397.554</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>124973</v>
+        <v>100481</v>
       </c>
       <c r="C28">
-        <v>325660</v>
+        <v>328465</v>
       </c>
       <c r="D28" t="str">
-        <v>Station N'Guerf</v>
+        <v>Puits Assefar Ahmed</v>
       </c>
       <c r="E28" t="str">
-        <v>2687/79</v>
+        <v>1205/78</v>
       </c>
       <c r="F28" t="str">
-        <v>N’guerf</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G28" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H28" t="str">
         <v>Tiznit</v>
       </c>
       <c r="I28" t="str">
-        <v>Ait Moussa</v>
-      </c>
-      <c r="J28" t="str">
-        <v>débit très faible</v>
+        <v>Ras Moka</v>
       </c>
       <c r="K28">
-        <v>472716.956</v>
+        <v>448149.786</v>
       </c>
       <c r="L28">
-        <v>3304675.199</v>
+        <v>3306716.981</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>94750</v>
+        <v>95965</v>
       </c>
       <c r="C29">
-        <v>329175</v>
+        <v>317325</v>
       </c>
       <c r="D29" t="str">
-        <v>Canal Massa</v>
+        <v>Forage Boumaskiw Ahmed</v>
       </c>
       <c r="E29" t="str">
-        <v>322/78</v>
+        <v>1378/78</v>
       </c>
       <c r="F29" t="str">
-        <v>Massa</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G29" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H29" t="str">
         <v>Tiznit</v>
       </c>
       <c r="I29" t="str">
-        <v>El Maader</v>
+        <v>Ras Moka</v>
       </c>
       <c r="J29" t="str">
-        <v>prélèvement au niveau de la digue</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K29">
-        <v>442399.438</v>
+        <v>443982.445</v>
       </c>
       <c r="L29">
-        <v>3307248.427</v>
+        <v>3295441.805</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B30">
-        <v>95864</v>
+        <v>82821</v>
       </c>
       <c r="C30">
-        <v>331340</v>
+        <v>314617</v>
       </c>
       <c r="D30" t="str">
-        <v>Puits public douar ait oumribt</v>
+        <v>Puits Oubayhi Brahim</v>
       </c>
       <c r="E30" t="str">
-        <v>1210/78</v>
+        <v>1382/78</v>
       </c>
       <c r="F30" t="str">
-        <v>Puits équipé</v>
+        <v>Puits non équipé</v>
       </c>
       <c r="G30" t="str">
         <v>Eau souterraine</v>
@@ -1527,68 +2297,68 @@
         <v>EL maâder</v>
       </c>
       <c r="J30" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K30">
-        <v>443445.592</v>
+        <v>430928.757</v>
       </c>
       <c r="L30">
-        <v>3309447.039</v>
+        <v>3292326.096</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B31">
-        <v>193630</v>
+        <v>76188</v>
       </c>
       <c r="C31">
-        <v>399964</v>
+        <v>322873</v>
       </c>
       <c r="D31" t="str">
-        <v>Domaine Ouled Aissa ( Forage n 1) (Ferme My Abde hart )</v>
+        <v>Puits Douar Timizlit</v>
       </c>
       <c r="E31" t="str">
-        <v>SM  89/6</v>
+        <v>1376/78</v>
       </c>
       <c r="F31" t="str">
-        <v>Puits équipé</v>
+        <v>Puits non équipé</v>
       </c>
       <c r="G31" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H31" t="str">
-        <v>Taroudant</v>
+        <v>Tiznit</v>
       </c>
       <c r="I31" t="str">
-        <v>Ouled Aissa</v>
+        <v>Aglou</v>
       </c>
       <c r="J31" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K31">
-        <v>539022.127</v>
+        <v>424041.883</v>
       </c>
       <c r="L31">
-        <v>3381076.357</v>
+        <v>3300372.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>204445</v>
+        <v>81233</v>
       </c>
       <c r="C32">
-        <v>400075</v>
+        <v>330784</v>
       </c>
       <c r="D32" t="str">
-        <v>Forage Rzagna 4</v>
+        <v>Puits Dour Aziz si Slimane</v>
       </c>
       <c r="E32" t="str">
-        <v>401/62</v>
+        <v>1375/78</v>
       </c>
       <c r="F32" t="str">
         <v>Puits équipé</v>
@@ -1597,36 +2367,36 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H32" t="str">
-        <v>Taroudant</v>
+        <v>Tiznit</v>
       </c>
       <c r="I32" t="str">
-        <v>Lamhara</v>
+        <v>EL maâder</v>
       </c>
       <c r="J32" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Puits non réalisé Pompe en panne + Coordonnée corrigée</v>
       </c>
       <c r="K32">
-        <v>549827.159</v>
+        <v>428838.663</v>
       </c>
       <c r="L32">
-        <v>3381525.01</v>
+        <v>3308436.429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B33">
-        <v>200901</v>
+        <v>81689</v>
       </c>
       <c r="C33">
-        <v>400591</v>
+        <v>309702</v>
       </c>
       <c r="D33" t="str">
-        <v>Forage Association du douar Laassakra</v>
+        <v>Puits Oulaain Id Bojemaa</v>
       </c>
       <c r="E33" t="str">
-        <v>2297/61</v>
+        <v>1202/78</v>
       </c>
       <c r="F33" t="str">
         <v>Puits équipé</v>
@@ -1635,74 +2405,71 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H33" t="str">
-        <v>Taroudant</v>
+        <v>Tiznit</v>
       </c>
       <c r="I33" t="str">
-        <v>Tinzert</v>
-      </c>
-      <c r="J33" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Tiznit</v>
       </c>
       <c r="K33">
-        <v>546269.162</v>
+        <v>429950.217</v>
       </c>
       <c r="L33">
-        <v>3381930</v>
+        <v>3287378.077</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B34">
-        <v>179072</v>
+        <v>81305</v>
       </c>
       <c r="C34">
-        <v>390858</v>
+        <v>311050</v>
       </c>
       <c r="D34" t="str">
-        <v>Puits public du douar Oulad Maassoud</v>
+        <v>Puits Dabaha Taib</v>
       </c>
       <c r="E34" t="str">
-        <v>40/70</v>
+        <v>1204/78</v>
       </c>
       <c r="F34" t="str">
-        <v>Puits équipé</v>
+        <v>Puits non équipé</v>
       </c>
       <c r="G34" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H34" t="str">
-        <v>Taroudant</v>
+        <v>Tiznit</v>
       </c>
       <c r="I34" t="str">
-        <v>Freija</v>
+        <v>Tiznit</v>
       </c>
       <c r="J34" t="str">
         <v>Coordonnée corrigée</v>
       </c>
       <c r="K34">
-        <v>524756.918</v>
+        <v>429524.435</v>
       </c>
       <c r="L34">
-        <v>3371521.708</v>
+        <v>3288713.522</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B35">
-        <v>180482</v>
+        <v>88478</v>
       </c>
       <c r="C35">
-        <v>393557</v>
+        <v>327082</v>
       </c>
       <c r="D35" t="str">
-        <v>Forage périmetre agricole oulad Bouriouss 2</v>
+        <v>Forage 1 Ferme Omari Abdelallah</v>
       </c>
       <c r="E35" t="str">
-        <v>4731/70</v>
+        <v>1377/78</v>
       </c>
       <c r="F35" t="str">
         <v>Forage équipé</v>
@@ -1711,150 +2478,150 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H35" t="str">
-        <v>Taroudant</v>
+        <v>Tiznit</v>
       </c>
       <c r="I35" t="str">
-        <v>Freija</v>
+        <v>EL maâder</v>
       </c>
       <c r="J35" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K35">
-        <v>526081.929</v>
+        <v>436195.453</v>
       </c>
       <c r="L35">
-        <v>3374263.055</v>
+        <v>3304961.376</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B36">
-        <v>173040</v>
+        <v>103907</v>
       </c>
       <c r="C36">
-        <v>392320</v>
+        <v>352756</v>
       </c>
       <c r="D36" t="str">
-        <v>Canal Freija</v>
+        <v>Puits Public du douar  Tounf Ait Bakkour</v>
       </c>
       <c r="E36" t="str">
-        <v>4365/70</v>
+        <v>4138/70</v>
       </c>
       <c r="F36" t="str">
-        <v>Souss</v>
+        <v>Puits êquipé</v>
       </c>
       <c r="G36" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H36" t="str">
-        <v>Taroudant</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I36" t="str">
-        <v>Freija</v>
+        <v>Belfaa</v>
       </c>
       <c r="J36" t="str">
-        <v>Canal A SEC</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K36">
-        <v>518682.953</v>
+        <v>450819.051</v>
       </c>
       <c r="L36">
-        <v>3372794.827</v>
+        <v>3331102.563</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B37">
-        <v>174678</v>
+        <v>99683</v>
       </c>
       <c r="C37">
-        <v>393911</v>
+        <v>347302</v>
       </c>
       <c r="D37" t="str">
-        <v>Forage station de pompage ait Yaazza</v>
+        <v xml:space="preserve">Puits Assocition du douar  Ishnan </v>
       </c>
       <c r="E37" t="str">
-        <v>1677/70</v>
+        <v>1256/70</v>
       </c>
       <c r="F37" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G37" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H37" t="str">
-        <v>Taroudant</v>
+        <v>Chtouka- Ait Baria</v>
       </c>
       <c r="I37" t="str">
-        <v>Freija</v>
+        <v>Belfea</v>
       </c>
       <c r="J37" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K37">
-        <v>520270.385</v>
+        <v>446766.612</v>
       </c>
       <c r="L37">
-        <v>3374435.916</v>
+        <v>3325520.032</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>166298</v>
+        <v>95284</v>
       </c>
       <c r="C38">
-        <v>396782</v>
+        <v>353414</v>
       </c>
       <c r="D38" t="str">
-        <v>Puits N’Ait Ouaali (puits n° 1)</v>
+        <v>Forage Ifriane ferme Agrouga A</v>
       </c>
       <c r="E38" t="str">
-        <v>887/61</v>
+        <v>NP</v>
       </c>
       <c r="F38" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G38" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H38" t="str">
-        <v>Taroudant</v>
+        <v>Chtouka- Ait Baba</v>
       </c>
       <c r="I38" t="str">
-        <v>Taroudant</v>
+        <v>Belfea</v>
       </c>
       <c r="J38" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K38">
-        <v>511806.024</v>
+        <v>442179.898</v>
       </c>
       <c r="L38">
-        <v>3377044.075</v>
+        <v>3331492.367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B39">
-        <v>168950</v>
+        <v>91070</v>
       </c>
       <c r="C39">
-        <v>392050</v>
+        <v>354842</v>
       </c>
       <c r="D39" t="str">
-        <v>Domaine  Elbora (SP1) (Ferme my Hicham)</v>
+        <v xml:space="preserve">Puits Association DOUIRA </v>
       </c>
       <c r="E39" t="str">
-        <v>823/70</v>
+        <v>NP</v>
       </c>
       <c r="F39" t="str">
         <v>Puits équipé</v>
@@ -1863,258 +2630,264 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H39" t="str">
-        <v>Taroudant</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I39" t="str">
-        <v>Igoudar Lmnabha</v>
+        <v>Belfaa</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K39">
-        <v>514603.821</v>
+        <v>437923.61</v>
       </c>
       <c r="L39">
-        <v>3372397.554</v>
+        <v>3332788.798</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B40">
-        <v>100481</v>
+        <v>89310</v>
       </c>
       <c r="C40">
-        <v>328465</v>
+        <v>350061</v>
       </c>
       <c r="D40" t="str">
-        <v>Puits Assefar Ahmed</v>
+        <v xml:space="preserve">Forage Assocition du douar  sidi Rbat  </v>
       </c>
       <c r="E40" t="str">
-        <v>1205/78</v>
+        <v>NP</v>
       </c>
       <c r="F40" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G40" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H40" t="str">
-        <v>Tiznit</v>
+        <v>Chtouka- Ait Baha</v>
       </c>
       <c r="I40" t="str">
-        <v>Ras Moka</v>
+        <v>Massa</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K40">
-        <v>448149.786</v>
+        <v>436312.937</v>
       </c>
       <c r="L40">
-        <v>3306716.981</v>
+        <v>3327955.447</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B41">
-        <v>95965</v>
+        <v>88226</v>
       </c>
       <c r="C41">
-        <v>317325</v>
+        <v>339780</v>
       </c>
       <c r="D41" t="str">
-        <v>Forage Boumaskiw Ahmed</v>
+        <v xml:space="preserve">Puits Assocition du douar  Ait Liass </v>
       </c>
       <c r="E41" t="str">
-        <v>1378/78</v>
+        <v>1018/69</v>
       </c>
       <c r="F41" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G41" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H41" t="str">
-        <v>Tiznit</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I41" t="str">
-        <v>Ras Moka</v>
+        <v>Belfaa</v>
       </c>
       <c r="J41" t="str">
-        <v>Nom+Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K41">
-        <v>443982.445</v>
+        <v>435548.848</v>
       </c>
       <c r="L41">
-        <v>3295441.805</v>
+        <v>3317645.637</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B42">
-        <v>101380</v>
+        <v>88242</v>
       </c>
       <c r="C42">
-        <v>298140</v>
+        <v>338837</v>
       </c>
       <c r="D42" t="str">
-        <v>Station Ouigane</v>
+        <v xml:space="preserve">Puits Assocition du douar Idaouloun </v>
       </c>
       <c r="E42" t="str">
-        <v>810/78</v>
+        <v>1189/69</v>
       </c>
       <c r="F42" t="str">
-        <v>Tazeroualt</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G42" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H42" t="str">
-        <v>Tiznit</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I42" t="str">
-        <v>Tighmi</v>
+        <v>Massa</v>
       </c>
       <c r="J42" t="str">
-        <v>Oued A SEC</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K42">
-        <v>449992.012</v>
+        <v>435594.145</v>
       </c>
       <c r="L42">
-        <v>3276434.451</v>
+        <v>3316703.576</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B43">
-        <v>82821</v>
+        <v>89000</v>
       </c>
       <c r="C43">
-        <v>314617</v>
+        <v>336800</v>
       </c>
       <c r="D43" t="str">
-        <v>Puits Oubayhi Brahim</v>
+        <v>Pont Ifntar</v>
       </c>
       <c r="E43" t="str">
-        <v>1382/78</v>
+        <v>13/69</v>
       </c>
       <c r="F43" t="str">
-        <v>Puits non équipé</v>
+        <v>Massa Aval</v>
       </c>
       <c r="G43" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H43" t="str">
-        <v>Tiznit</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I43" t="str">
-        <v>EL maâder</v>
+        <v>Massa</v>
       </c>
       <c r="J43" t="str">
-        <v>Nom+Coordonnée corrigée</v>
+        <v>Oued A SEC</v>
       </c>
       <c r="K43">
-        <v>430928.757</v>
+        <v>436415.097</v>
       </c>
       <c r="L43">
-        <v>3292326.096</v>
+        <v>3314691.087</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B44">
-        <v>76188</v>
+        <v>104284</v>
       </c>
       <c r="C44">
-        <v>322873</v>
+        <v>360527</v>
       </c>
       <c r="D44" t="str">
-        <v>Puits Douar Timizlit</v>
+        <v xml:space="preserve">Forage Vige Express </v>
       </c>
       <c r="E44" t="str">
-        <v>1376/78</v>
+        <v>4130/70</v>
       </c>
       <c r="F44" t="str">
-        <v>Puits non équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G44" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H44" t="str">
-        <v>Tiznit</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I44" t="str">
-        <v>Aglou</v>
+        <v>Ait Amira</v>
       </c>
       <c r="J44" t="str">
-        <v>Nom+Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K44">
-        <v>424041.883</v>
+        <v>450954.457</v>
       </c>
       <c r="L44">
-        <v>3300372.09</v>
+        <v>3338881.332</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B45">
-        <v>81233</v>
+        <v>108531</v>
       </c>
       <c r="C45">
-        <v>330784</v>
+        <v>350278</v>
       </c>
       <c r="D45" t="str">
-        <v>Puits Dour Aziz si Slimane</v>
+        <v xml:space="preserve">Puits Association du Douar Tin Taleb Salem  </v>
       </c>
       <c r="E45" t="str">
-        <v>1375/78</v>
+        <v>3627/70</v>
       </c>
       <c r="F45" t="str">
-        <v>Puits équipé</v>
+        <v>Puits équipë</v>
       </c>
       <c r="G45" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H45" t="str">
-        <v>Tiznit</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I45" t="str">
-        <v>EL maâder</v>
+        <v>Ait amira</v>
       </c>
       <c r="J45" t="str">
-        <v>Puits non réalisé Pompe en panne + Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K45">
-        <v>428838.663</v>
+        <v>455517.719</v>
       </c>
       <c r="L45">
-        <v>3308436.429</v>
+        <v>3328769.496</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B46">
-        <v>81689</v>
+        <v>109496</v>
       </c>
       <c r="C46">
-        <v>309702</v>
+        <v>350590</v>
       </c>
       <c r="D46" t="str">
-        <v>Puits Oulaain Id Bojemaa</v>
+        <v xml:space="preserve">Puits Public du douar Ibidaren  </v>
       </c>
       <c r="E46" t="str">
-        <v>1202/78</v>
+        <v>1280/70</v>
       </c>
       <c r="F46" t="str">
         <v>Puits équipé</v>
@@ -2123,71 +2896,74 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H46" t="str">
-        <v>Tiznit</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I46" t="str">
-        <v>Tiznit</v>
+        <v>Ait Amira</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K46">
-        <v>429950.217</v>
+        <v>456472.534</v>
       </c>
       <c r="L46">
-        <v>3287378.077</v>
+        <v>3329111.328</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B47">
-        <v>81305</v>
+        <v>108620</v>
       </c>
       <c r="C47">
-        <v>311050</v>
+        <v>343982</v>
       </c>
       <c r="D47" t="str">
-        <v>Puits Dabaha Taib</v>
+        <v xml:space="preserve">Puits Association Almostakbal Douar Ben Aouiss </v>
       </c>
       <c r="E47" t="str">
-        <v>1204/78</v>
+        <v>4292/70</v>
       </c>
       <c r="F47" t="str">
-        <v>Puits non équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G47" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H47" t="str">
-        <v>Tiznit</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I47" t="str">
-        <v>Tiznit</v>
+        <v>Belfaa</v>
       </c>
       <c r="J47" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K47">
-        <v>429524.435</v>
+        <v>455802.359</v>
       </c>
       <c r="L47">
-        <v>3288713.522</v>
+        <v>3322479.43</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B48">
-        <v>88478</v>
+        <v>101213</v>
       </c>
       <c r="C48">
-        <v>327082</v>
+        <v>336784</v>
       </c>
       <c r="D48" t="str">
-        <v>Forage 1 Ferme Omari Abdelallah</v>
+        <v xml:space="preserve">Forage Association Douar Stayeh </v>
       </c>
       <c r="E48" t="str">
-        <v>1377/78</v>
+        <v>NP</v>
       </c>
       <c r="F48" t="str">
         <v>Forage équipé</v>
@@ -2196,39 +2972,39 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H48" t="str">
-        <v>Tiznit</v>
+        <v>Chtouka- Ait Baha</v>
       </c>
       <c r="I48" t="str">
-        <v>EL maâder</v>
+        <v>Belfea</v>
       </c>
       <c r="J48" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K48">
-        <v>436195.453</v>
+        <v>448622.768</v>
       </c>
       <c r="L48">
-        <v>3304961.376</v>
+        <v>3315054.724</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B49">
-        <v>103907</v>
+        <v>110035</v>
       </c>
       <c r="C49">
-        <v>352756</v>
+        <v>351807</v>
       </c>
       <c r="D49" t="str">
-        <v>Puits Public du douar  Tounf Ait Bakkour</v>
+        <v xml:space="preserve">Forage Association Nasr du douar Haj Ali  </v>
       </c>
       <c r="E49" t="str">
-        <v>4138/70</v>
+        <v>4302/70</v>
       </c>
       <c r="F49" t="str">
-        <v>Puits êquipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G49" t="str">
         <v>Eau souterraine</v>
@@ -2237,71 +3013,71 @@
         <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I49" t="str">
-        <v>Belfaa</v>
+        <v>Ait amira</v>
       </c>
       <c r="J49" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K49">
-        <v>450819.051</v>
+        <v>456973.439</v>
       </c>
       <c r="L49">
-        <v>3331102.563</v>
+        <v>3330344.46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B50">
-        <v>99683</v>
+        <v>114535</v>
       </c>
       <c r="C50">
-        <v>347302</v>
+        <v>354733</v>
       </c>
       <c r="D50" t="str">
-        <v xml:space="preserve">Puits Assocition du douar  Ishnan </v>
+        <v xml:space="preserve">Forage Association  du douar Ftayh  </v>
       </c>
       <c r="E50" t="str">
-        <v>1256/70</v>
+        <v>4239/70</v>
       </c>
       <c r="F50" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G50" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H50" t="str">
-        <v>Chtouka- Ait Baria</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I50" t="str">
-        <v>Belfea</v>
+        <v>Ait amira</v>
       </c>
       <c r="J50" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K50">
-        <v>446766.612</v>
+        <v>461380.195</v>
       </c>
       <c r="L50">
-        <v>3325520.032</v>
+        <v>3333408.808</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B51">
-        <v>95284</v>
+        <v>105818</v>
       </c>
       <c r="C51">
-        <v>353414</v>
+        <v>354889</v>
       </c>
       <c r="D51" t="str">
-        <v>Forage Ifriane ferme Agrouga A</v>
+        <v xml:space="preserve">Forage Association Tamounte du douar Oukhrib Allal  </v>
       </c>
       <c r="E51" t="str">
-        <v>NP</v>
+        <v>1281/70</v>
       </c>
       <c r="F51" t="str">
         <v>Forage équipé</v>
@@ -2310,39 +3086,39 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H51" t="str">
-        <v>Chtouka- Ait Baba</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I51" t="str">
-        <v>Belfea</v>
+        <v>Art amira</v>
       </c>
       <c r="J51" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K51">
-        <v>442179.898</v>
+        <v>452662.816</v>
       </c>
       <c r="L51">
-        <v>3331492.367</v>
+        <v>3333293.859</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B52">
-        <v>91070</v>
+        <v>120017</v>
       </c>
       <c r="C52">
-        <v>354842</v>
+        <v>366524</v>
       </c>
       <c r="D52" t="str">
-        <v xml:space="preserve">Puits Association DOUIRA </v>
+        <v xml:space="preserve">Forage Association du douar Ait Hroug </v>
       </c>
       <c r="E52" t="str">
-        <v>NP</v>
+        <v>6193/70</v>
       </c>
       <c r="F52" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G52" t="str">
         <v>Eau souterraine</v>
@@ -2351,33 +3127,33 @@
         <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I52" t="str">
-        <v>Belfaa</v>
+        <v>Oued essafla</v>
       </c>
       <c r="J52" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K52">
-        <v>437923.61</v>
+        <v>466492.887</v>
       </c>
       <c r="L52">
-        <v>3332788.798</v>
+        <v>3345363.951</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B53">
-        <v>89310</v>
+        <v>121354</v>
       </c>
       <c r="C53">
-        <v>350061</v>
+        <v>365320</v>
       </c>
       <c r="D53" t="str">
-        <v xml:space="preserve">Forage Assocition du douar  sidi Rbat  </v>
+        <v xml:space="preserve">Forage Association du douar Ait Bella </v>
       </c>
       <c r="E53" t="str">
-        <v>NP</v>
+        <v>881/70</v>
       </c>
       <c r="F53" t="str">
         <v>Forage équipé</v>
@@ -2386,115 +3162,115 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H53" t="str">
-        <v>Chtouka- Ait Baha</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I53" t="str">
-        <v>Massa</v>
+        <v>Oued essaffa</v>
       </c>
       <c r="J53" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K53">
-        <v>436312.937</v>
+        <v>467866.584</v>
       </c>
       <c r="L53">
-        <v>3327955.447</v>
+        <v>3344202.146</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B54">
-        <v>88226</v>
+        <v>121570</v>
       </c>
       <c r="C54">
-        <v>339780</v>
+        <v>364236</v>
       </c>
       <c r="D54" t="str">
-        <v xml:space="preserve">Puits Assocition du douar  Ait Liass </v>
+        <v xml:space="preserve">Forage Association du douar talborjt </v>
       </c>
       <c r="E54" t="str">
-        <v>1018/69</v>
+        <v>876/70</v>
       </c>
       <c r="F54" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G54" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H54" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Chtouka   Ait Baha</v>
       </c>
       <c r="I54" t="str">
-        <v>Belfaa</v>
+        <v>Oued essaffa</v>
       </c>
       <c r="J54" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K54">
-        <v>435548.848</v>
+        <v>468116.156</v>
       </c>
       <c r="L54">
-        <v>3317645.637</v>
+        <v>3343125.44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B55">
-        <v>88118</v>
+        <v>122730</v>
       </c>
       <c r="C55">
-        <v>339329</v>
+        <v>366567</v>
       </c>
       <c r="D55" t="str">
-        <v xml:space="preserve">Puits Assocition du douar  Tikioute </v>
+        <v>Forage YAYA Abderrahim (tin Saleh)</v>
       </c>
       <c r="E55" t="str">
-        <v>1019/69</v>
+        <v>4897/70</v>
       </c>
       <c r="F55" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G55" t="str">
-        <v>eau de surface</v>
+        <v>Eau souterraine</v>
       </c>
       <c r="H55" t="str">
-        <v>Chtouka Ait Baha</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I55" t="str">
-        <v>Massa</v>
+        <v>Oued safa</v>
       </c>
       <c r="J55" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K55">
-        <v>435454.914</v>
+        <v>469203.089</v>
       </c>
       <c r="L55">
-        <v>3317191.493</v>
+        <v>3345491.237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B56">
-        <v>88242</v>
+        <v>106658</v>
       </c>
       <c r="C56">
-        <v>338837</v>
+        <v>359019</v>
       </c>
       <c r="D56" t="str">
-        <v xml:space="preserve">Puits Assocition du douar Idaouloun </v>
+        <v xml:space="preserve">Forage Association du douar  El kherba </v>
       </c>
       <c r="E56" t="str">
-        <v>1189/69</v>
+        <v>5667/70</v>
       </c>
       <c r="F56" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G56" t="str">
         <v>Eau souterraine</v>
@@ -2503,36 +3279,36 @@
         <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I56" t="str">
-        <v>Massa</v>
+        <v>Ait amira</v>
       </c>
       <c r="J56" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K56">
-        <v>435594.145</v>
+        <v>453374.082</v>
       </c>
       <c r="L56">
-        <v>3316703.576</v>
+        <v>3337447.847</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B57">
-        <v>89000</v>
+        <v>119604</v>
       </c>
       <c r="C57">
-        <v>336800</v>
+        <v>355781</v>
       </c>
       <c r="D57" t="str">
-        <v>Pont Ifntar</v>
+        <v>Puits n° 4 du domaine royal Chtouki</v>
       </c>
       <c r="E57" t="str">
-        <v>13/69</v>
+        <v>5463/70</v>
       </c>
       <c r="F57" t="str">
-        <v>Massa Aval</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G57" t="str">
         <v>Eau souterraine</v>
@@ -2541,33 +3317,33 @@
         <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I57" t="str">
-        <v>Massa</v>
+        <v>Oued safa</v>
       </c>
       <c r="J57" t="str">
-        <v>Oued A SEC</v>
+        <v>Coordonnée corrigée</v>
       </c>
       <c r="K57">
-        <v>436415.097</v>
+        <v>466413.985</v>
       </c>
       <c r="L57">
-        <v>3314691.087</v>
+        <v>3334613.812</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B58">
-        <v>104284</v>
+        <v>116439</v>
       </c>
       <c r="C58">
-        <v>360527</v>
+        <v>365877</v>
       </c>
       <c r="D58" t="str">
-        <v xml:space="preserve">Forage Vige Express </v>
+        <v xml:space="preserve">Forage Association du douar  Ait Daoud </v>
       </c>
       <c r="E58" t="str">
-        <v>4130/70</v>
+        <v>3023/70</v>
       </c>
       <c r="F58" t="str">
         <v>Forage équipé</v>
@@ -2579,36 +3355,36 @@
         <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I58" t="str">
-        <v>Ait Amira</v>
+        <v>Oued essaffa</v>
       </c>
       <c r="J58" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K58">
-        <v>450954.457</v>
+        <v>462936.906</v>
       </c>
       <c r="L58">
-        <v>3338881.332</v>
+        <v>3344606.122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B59">
-        <v>108531</v>
+        <v>116410</v>
       </c>
       <c r="C59">
-        <v>350278</v>
+        <v>366380</v>
       </c>
       <c r="D59" t="str">
-        <v xml:space="preserve">Puits Association du Douar Tin Taleb Salem  </v>
+        <v xml:space="preserve">Forage Association du douar  Tin Daoud </v>
       </c>
       <c r="E59" t="str">
-        <v>3627/70</v>
+        <v>7016/70</v>
       </c>
       <c r="F59" t="str">
-        <v>Puits équipë</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G59" t="str">
         <v>Eau souterraine</v>
@@ -2617,36 +3393,36 @@
         <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I59" t="str">
-        <v>Ait amira</v>
+        <v>Oued essaffa</v>
       </c>
       <c r="J59" t="str">
         <v>Nom et Coordonnée corrigée</v>
       </c>
       <c r="K59">
-        <v>455517.719</v>
+        <v>462892.294</v>
       </c>
       <c r="L59">
-        <v>3328769.496</v>
+        <v>3345107.953</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B60">
-        <v>109496</v>
+        <v>115771</v>
       </c>
       <c r="C60">
-        <v>350590</v>
+        <v>365662</v>
       </c>
       <c r="D60" t="str">
-        <v xml:space="preserve">Puits Public du douar Ibidaren  </v>
+        <v>Forage Association du douar Tin kazzaz</v>
       </c>
       <c r="E60" t="str">
-        <v>1280/70</v>
+        <v>5754/70</v>
       </c>
       <c r="F60" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G60" t="str">
         <v>Eau souterraine</v>
@@ -2655,33 +3431,33 @@
         <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I60" t="str">
-        <v>Ait Amira</v>
+        <v>Oued essaffa</v>
       </c>
       <c r="J60" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K60">
-        <v>456472.534</v>
+        <v>462275.942</v>
       </c>
       <c r="L60">
-        <v>3329111.328</v>
+        <v>3344370.483</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B61">
-        <v>108620</v>
+        <v>118304</v>
       </c>
       <c r="C61">
-        <v>343982</v>
+        <v>367426</v>
       </c>
       <c r="D61" t="str">
-        <v xml:space="preserve">Puits Association Almostakbal Douar Ben Aouiss </v>
+        <v xml:space="preserve">Forage Association du douar Tadaouart </v>
       </c>
       <c r="E61" t="str">
-        <v>4292/70</v>
+        <v>365/70</v>
       </c>
       <c r="F61" t="str">
         <v>Puits équipé</v>
@@ -2693,112 +3469,112 @@
         <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I61" t="str">
-        <v>Belfaa</v>
+        <v>Oued essaffa</v>
       </c>
       <c r="J61" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K61">
-        <v>455802.359</v>
+        <v>464752.78</v>
       </c>
       <c r="L61">
-        <v>3322479.43</v>
+        <v>3346212.239</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B62">
-        <v>101213</v>
+        <v>118182</v>
       </c>
       <c r="C62">
-        <v>336784</v>
+        <v>369018</v>
       </c>
       <c r="D62" t="str">
-        <v xml:space="preserve">Forage Association Douar Stayeh </v>
+        <v>Forage  Association du douar Amhaiche</v>
       </c>
       <c r="E62" t="str">
-        <v>NP</v>
+        <v>3241/70</v>
       </c>
       <c r="F62" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G62" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H62" t="str">
-        <v>Chtouka- Ait Baha</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I62" t="str">
-        <v>Belfea</v>
+        <v>Oued Eesaffa</v>
       </c>
       <c r="J62" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K62">
-        <v>448622.768</v>
+        <v>464581.383</v>
       </c>
       <c r="L62">
-        <v>3315054.724</v>
+        <v>3347799.591</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B63">
-        <v>110035</v>
+        <v>119809</v>
       </c>
       <c r="C63">
-        <v>351807</v>
+        <v>347189</v>
       </c>
       <c r="D63" t="str">
-        <v xml:space="preserve">Forage Association Nasr du douar Haj Ali  </v>
+        <v xml:space="preserve">Puits Association du douar Oubihi </v>
       </c>
       <c r="E63" t="str">
-        <v>4302/70</v>
+        <v>3630/70</v>
       </c>
       <c r="F63" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G63" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H63" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Chtouka- Ait Baha</v>
       </c>
       <c r="I63" t="str">
-        <v>Ait amira</v>
+        <v>Sidi Boushab</v>
       </c>
       <c r="J63" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K63">
-        <v>456973.439</v>
+        <v>466885.981</v>
       </c>
       <c r="L63">
-        <v>3330344.46</v>
+        <v>3326032.643</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B64">
-        <v>114535</v>
+        <v>117887</v>
       </c>
       <c r="C64">
-        <v>354733</v>
+        <v>344572</v>
       </c>
       <c r="D64" t="str">
-        <v xml:space="preserve">Forage Association  du douar Ftayh  </v>
+        <v xml:space="preserve">Puits Association du douar Ait Bennani </v>
       </c>
       <c r="E64" t="str">
-        <v>4239/70</v>
+        <v>4209/70</v>
       </c>
       <c r="F64" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G64" t="str">
         <v>Eau souterraine</v>
@@ -2807,74 +3583,74 @@
         <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I64" t="str">
-        <v>Ait amira</v>
+        <v>Sidi boushab</v>
       </c>
       <c r="J64" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K64">
-        <v>461380.195</v>
+        <v>465046.333</v>
       </c>
       <c r="L64">
-        <v>3333408.808</v>
+        <v>3323357.226</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B65">
-        <v>105818</v>
+        <v>117278</v>
       </c>
       <c r="C65">
-        <v>354889</v>
+        <v>343418</v>
       </c>
       <c r="D65" t="str">
-        <v xml:space="preserve">Forage Association Tamounte du douar Oukhrib Allal  </v>
+        <v xml:space="preserve">Puits Association du douar Taggenza </v>
       </c>
       <c r="E65" t="str">
-        <v>1281/70</v>
+        <v>4210/70</v>
       </c>
       <c r="F65" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G65" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H65" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Chtouka - Art Baha</v>
       </c>
       <c r="I65" t="str">
-        <v>Art amira</v>
+        <v>Sidi boushab</v>
       </c>
       <c r="J65" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K65">
-        <v>452662.816</v>
+        <v>464473.524</v>
       </c>
       <c r="L65">
-        <v>3333293.859</v>
+        <v>3322184.879</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B66">
-        <v>120017</v>
+        <v>108033</v>
       </c>
       <c r="C66">
-        <v>366524</v>
+        <v>368494</v>
       </c>
       <c r="D66" t="str">
-        <v xml:space="preserve">Forage Association du douar Ait Hroug </v>
+        <v>Forage Association Douar TADDART</v>
       </c>
       <c r="E66" t="str">
-        <v>6193/70</v>
+        <v>3092/70</v>
       </c>
       <c r="F66" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G66" t="str">
         <v>Eau souterraine</v>
@@ -2883,109 +3659,109 @@
         <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I66" t="str">
-        <v>Oued essafla</v>
+        <v>Sidi bibi</v>
       </c>
       <c r="J66" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K66">
-        <v>466492.887</v>
+        <v>454454.076</v>
       </c>
       <c r="L66">
-        <v>3345363.951</v>
+        <v>3346960.624</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B67">
-        <v>121354</v>
+        <v>105751</v>
       </c>
       <c r="C67">
-        <v>365320</v>
+        <v>366135</v>
       </c>
       <c r="D67" t="str">
-        <v xml:space="preserve">Forage Association du douar Ait Bella </v>
+        <v>Puits Association Hassi Labguar</v>
       </c>
       <c r="E67" t="str">
-        <v>881/70</v>
+        <v>3096/70</v>
       </c>
       <c r="F67" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G67" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H67" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Chlouka - Ait Baha</v>
       </c>
       <c r="I67" t="str">
-        <v>Oued essaffa</v>
+        <v>Sidi bibi</v>
       </c>
       <c r="J67" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K67">
-        <v>467866.584</v>
+        <v>452246.531</v>
       </c>
       <c r="L67">
-        <v>3344202.146</v>
+        <v>3344531.995</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B68">
-        <v>121570</v>
+        <v>101400</v>
       </c>
       <c r="C68">
-        <v>364236</v>
+        <v>365597</v>
       </c>
       <c r="D68" t="str">
-        <v xml:space="preserve">Forage Association du douar talborjt </v>
+        <v>Puits Association DRYD</v>
       </c>
       <c r="E68" t="str">
-        <v>876/70</v>
+        <v>1045/69</v>
       </c>
       <c r="F68" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G68" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H68" t="str">
-        <v>Chtouka   Ait Baha</v>
+        <v>Chtouka - Ait Baha</v>
       </c>
       <c r="I68" t="str">
-        <v>Oued essaffa</v>
+        <v>Biougra</v>
       </c>
       <c r="J68" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K68">
-        <v>468116.156</v>
+        <v>447914.491</v>
       </c>
       <c r="L68">
-        <v>3343125.44</v>
+        <v>3343859.167</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B69">
-        <v>122730</v>
+        <v>157800</v>
       </c>
       <c r="C69">
-        <v>366567</v>
+        <v>312000</v>
       </c>
       <c r="D69" t="str">
-        <v>Forage YAYA Abderrahim (tin Saleh)</v>
+        <v>Forage Haj Yahya Driouch</v>
       </c>
       <c r="E69" t="str">
-        <v>4897/70</v>
+        <v>NP</v>
       </c>
       <c r="F69" t="str">
         <v>Forage équipé</v>
@@ -2994,188 +3770,191 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H69" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Tiznit</v>
       </c>
       <c r="I69" t="str">
-        <v>Oued safa</v>
+        <v>Ammeine</v>
       </c>
       <c r="J69" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée remplacer puits chafai Med fermé</v>
       </c>
       <c r="K69">
-        <v>469203.089</v>
+        <v>505952.371</v>
       </c>
       <c r="L69">
-        <v>3345491.237</v>
+        <v>3292043.738</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B70">
-        <v>106658</v>
+        <v>87088</v>
       </c>
       <c r="C70">
-        <v>359019</v>
+        <v>293487</v>
       </c>
       <c r="D70" t="str">
-        <v xml:space="preserve">Forage Association du douar  El kherba </v>
+        <v xml:space="preserve">Puits Association Douar Tchira (Reggada) </v>
       </c>
       <c r="E70" t="str">
-        <v>5667/70</v>
+        <v>1381/78</v>
       </c>
       <c r="F70" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G70" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H70" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Tiznit</v>
       </c>
       <c r="I70" t="str">
-        <v>Ait amira</v>
+        <v>Reggada</v>
       </c>
       <c r="J70" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K70">
-        <v>453374.082</v>
+        <v>435851.646</v>
       </c>
       <c r="L70">
-        <v>3337447.847</v>
+        <v>3271338.55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B71">
-        <v>119604</v>
+        <v>81288</v>
       </c>
       <c r="C71">
-        <v>355781</v>
+        <v>305603</v>
       </c>
       <c r="D71" t="str">
-        <v>Puits n° 4 du domaine royal Chtouki</v>
+        <v>Forage Tiznit Ferme Tacharok</v>
       </c>
       <c r="E71" t="str">
-        <v>5463/70</v>
+        <v>1203/78</v>
       </c>
       <c r="F71" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G71" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H71" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Tiznit</v>
       </c>
       <c r="I71" t="str">
-        <v>Oued safa</v>
+        <v>Tiznit</v>
       </c>
       <c r="J71" t="str">
-        <v>Coordonnée corrigée</v>
+        <v>Nom+Coordonnée corrigée</v>
       </c>
       <c r="K71">
-        <v>466413.985</v>
+        <v>429676.987</v>
       </c>
       <c r="L71">
-        <v>3334613.812</v>
+        <v>3283268.431</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B72">
-        <v>116439</v>
+        <v>82282</v>
       </c>
       <c r="C72">
-        <v>365877</v>
+        <v>277441</v>
       </c>
       <c r="D72" t="str">
-        <v xml:space="preserve">Forage Association du douar  Ait Daoud </v>
+        <v>Puits Commune Sidi Hsain Ouali</v>
       </c>
       <c r="E72" t="str">
-        <v>3023/70</v>
+        <v>1379/78</v>
       </c>
       <c r="F72" t="str">
-        <v>Forage équipé</v>
+        <v>Puits</v>
       </c>
       <c r="G72" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H72" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Tiznit</v>
       </c>
       <c r="I72" t="str">
-        <v>Oued essaffa</v>
+        <v>Sidi Hsain ouali</v>
       </c>
       <c r="J72" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Non+Coordonnée corrigée</v>
       </c>
       <c r="K72">
-        <v>462936.906</v>
+        <v>431547.909</v>
       </c>
       <c r="L72">
-        <v>3344606.122</v>
+        <v>3255150.196</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B73">
-        <v>116410</v>
+        <v>72758</v>
       </c>
       <c r="C73">
-        <v>366380</v>
+        <v>289175</v>
       </c>
       <c r="D73" t="str">
-        <v xml:space="preserve">Forage Association du douar  Tin Daoud </v>
+        <v>Puits Commune douar Bounaâmane</v>
       </c>
       <c r="E73" t="str">
-        <v>7016/70</v>
+        <v>1265/78</v>
       </c>
       <c r="F73" t="str">
-        <v>Forage équipé</v>
+        <v>Puits équipé</v>
       </c>
       <c r="G73" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H73" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Tiznit</v>
       </c>
       <c r="I73" t="str">
-        <v>Oued essaffa</v>
+        <v>Bounaâmane</v>
       </c>
       <c r="J73" t="str">
-        <v>Nom et Coordonnée corrigée</v>
+        <v>Non+Coordonnée corrigée</v>
       </c>
       <c r="K73">
-        <v>462892.294</v>
+        <v>421662.444</v>
       </c>
       <c r="L73">
-        <v>3345107.953</v>
+        <v>3266582.025</v>
+      </c>
+      <c r="M73" t="str">
+        <v>439/69</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B74">
-        <v>115771</v>
+        <v>76780</v>
       </c>
       <c r="C74">
-        <v>365662</v>
+        <v>302215</v>
       </c>
       <c r="D74" t="str">
-        <v>Forage Association du douar Tin kazzaz</v>
+        <v>Forage Ferme Bouslab Brahim</v>
       </c>
       <c r="E74" t="str">
-        <v>5754/70</v>
+        <v>1380/70</v>
       </c>
       <c r="F74" t="str">
         <v>Forage équipé</v>
@@ -3184,1056 +3963,386 @@
         <v>Eau souterraine</v>
       </c>
       <c r="H74" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Tiznit</v>
       </c>
       <c r="I74" t="str">
-        <v>Oued essaffa</v>
+        <v>Reggada</v>
       </c>
       <c r="J74" t="str">
-        <v>Nom+Coordonnée corrigée</v>
+        <v>Non+Coordonnée corrigée</v>
       </c>
       <c r="K74">
-        <v>462275.942</v>
+        <v>425276.472</v>
       </c>
       <c r="L74">
-        <v>3344370.483</v>
+        <v>3279741.583</v>
+      </c>
+      <c r="M74" t="str">
+        <v>360/61</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B75">
-        <v>118304</v>
+        <v>83122</v>
       </c>
       <c r="C75">
-        <v>367426</v>
+        <v>309553</v>
       </c>
       <c r="D75" t="str">
-        <v xml:space="preserve">Forage Association du douar Tadaouart </v>
+        <v>Forage Station Winxo</v>
       </c>
       <c r="E75" t="str">
-        <v>365/70</v>
+        <v>R -1223/78</v>
       </c>
       <c r="F75" t="str">
-        <v>Puits équipé</v>
+        <v>Forage équipé</v>
       </c>
       <c r="G75" t="str">
         <v>Eau souterraine</v>
       </c>
       <c r="H75" t="str">
-        <v>Chtouka - Ait Baha</v>
+        <v>Tiznit</v>
       </c>
       <c r="I75" t="str">
-        <v>Oued essaffa</v>
+        <v>Tiznit</v>
       </c>
       <c r="J75" t="str">
-        <v>Nom+Coordonnée corrigée</v>
+        <v>Puits abandonné Remplacé par Forage de la Station Winxo</v>
       </c>
       <c r="K75">
-        <v>464752.78</v>
+        <v>431387.21</v>
       </c>
       <c r="L75">
-        <v>3346212.239</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>118182</v>
-      </c>
-      <c r="C76">
-        <v>369018</v>
-      </c>
-      <c r="D76" t="str">
-        <v>Forage  Association du douar Amhaiche</v>
-      </c>
-      <c r="E76" t="str">
-        <v>3241/70</v>
-      </c>
-      <c r="F76" t="str">
-        <v>Puits équipé</v>
-      </c>
-      <c r="G76" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H76" t="str">
-        <v>Chtouka - Ait Baha</v>
-      </c>
-      <c r="I76" t="str">
-        <v>Oued Eesaffa</v>
-      </c>
-      <c r="J76" t="str">
-        <v>Nom+Coordonnée corrigée</v>
-      </c>
-      <c r="K76">
-        <v>464581.383</v>
-      </c>
-      <c r="L76">
-        <v>3347799.591</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>119809</v>
-      </c>
-      <c r="C77">
-        <v>347189</v>
-      </c>
-      <c r="D77" t="str">
-        <v xml:space="preserve">Puits Association du douar Oubihi </v>
-      </c>
-      <c r="E77" t="str">
-        <v>3630/70</v>
-      </c>
-      <c r="F77" t="str">
-        <v>Puits équipé</v>
-      </c>
-      <c r="G77" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H77" t="str">
-        <v>Chtouka- Ait Baha</v>
-      </c>
-      <c r="I77" t="str">
-        <v>Sidi Boushab</v>
-      </c>
-      <c r="J77" t="str">
-        <v>Nom+Coordonnée corrigée</v>
-      </c>
-      <c r="K77">
-        <v>466885.981</v>
-      </c>
-      <c r="L77">
-        <v>3326032.643</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>117887</v>
-      </c>
-      <c r="C78">
-        <v>344572</v>
-      </c>
-      <c r="D78" t="str">
-        <v xml:space="preserve">Puits Association du douar Ait Bennani </v>
-      </c>
-      <c r="E78" t="str">
-        <v>4209/70</v>
-      </c>
-      <c r="F78" t="str">
-        <v>Puits équipé</v>
-      </c>
-      <c r="G78" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H78" t="str">
-        <v>Chtouka - Ait Baha</v>
-      </c>
-      <c r="I78" t="str">
-        <v>Sidi boushab</v>
-      </c>
-      <c r="J78" t="str">
-        <v>Nom+Coordonnée corrigée</v>
-      </c>
-      <c r="K78">
-        <v>465046.333</v>
-      </c>
-      <c r="L78">
-        <v>3323357.226</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>117278</v>
-      </c>
-      <c r="C79">
-        <v>343418</v>
-      </c>
-      <c r="D79" t="str">
-        <v xml:space="preserve">Puits Association du douar Taggenza </v>
-      </c>
-      <c r="E79" t="str">
-        <v>4210/70</v>
-      </c>
-      <c r="F79" t="str">
-        <v>Puits équipé</v>
-      </c>
-      <c r="G79" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H79" t="str">
-        <v>Chtouka - Art Baha</v>
-      </c>
-      <c r="I79" t="str">
-        <v>Sidi boushab</v>
-      </c>
-      <c r="J79" t="str">
-        <v>Nom+Coordonnée corrigée</v>
-      </c>
-      <c r="K79">
-        <v>464473.524</v>
-      </c>
-      <c r="L79">
-        <v>3322184.879</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>108033</v>
-      </c>
-      <c r="C80">
-        <v>368494</v>
-      </c>
-      <c r="D80" t="str">
-        <v>Forage Association Douar TADDART</v>
-      </c>
-      <c r="E80" t="str">
-        <v>3092/70</v>
-      </c>
-      <c r="F80" t="str">
-        <v>Puits équipé</v>
-      </c>
-      <c r="G80" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H80" t="str">
-        <v>Chtouka - Ait Baha</v>
-      </c>
-      <c r="I80" t="str">
-        <v>Sidi bibi</v>
-      </c>
-      <c r="J80" t="str">
-        <v>Nom+Coordonnée corrigée</v>
-      </c>
-      <c r="K80">
-        <v>454454.076</v>
-      </c>
-      <c r="L80">
-        <v>3346960.624</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>105751</v>
-      </c>
-      <c r="C81">
-        <v>366135</v>
-      </c>
-      <c r="D81" t="str">
-        <v>Puits Association Hassi Labguar</v>
-      </c>
-      <c r="E81" t="str">
-        <v>3096/70</v>
-      </c>
-      <c r="F81" t="str">
-        <v>Puits équipé</v>
-      </c>
-      <c r="G81" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H81" t="str">
-        <v>Chlouka - Ait Baha</v>
-      </c>
-      <c r="I81" t="str">
-        <v>Sidi bibi</v>
-      </c>
-      <c r="J81" t="str">
-        <v>Nom+Coordonnée corrigée</v>
-      </c>
-      <c r="K81">
-        <v>452246.531</v>
-      </c>
-      <c r="L81">
-        <v>3344531.995</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>101400</v>
-      </c>
-      <c r="C82">
-        <v>365597</v>
-      </c>
-      <c r="D82" t="str">
-        <v>Puits Association DRYD</v>
-      </c>
-      <c r="E82" t="str">
-        <v>1045/69</v>
-      </c>
-      <c r="F82" t="str">
-        <v>Puits équipé</v>
-      </c>
-      <c r="G82" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H82" t="str">
-        <v>Chtouka - Ait Baha</v>
-      </c>
-      <c r="I82" t="str">
-        <v>Biougra</v>
-      </c>
-      <c r="J82" t="str">
-        <v>Nom+Coordonnée corrigée</v>
-      </c>
-      <c r="K82">
-        <v>447914.491</v>
-      </c>
-      <c r="L82">
-        <v>3343859.167</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>133380</v>
-      </c>
-      <c r="C83">
-        <v>309240</v>
-      </c>
-      <c r="D83" t="str">
-        <v>Station Amaghous</v>
-      </c>
-      <c r="E83" t="str">
-        <v>1276/79</v>
-      </c>
-      <c r="F83" t="str">
-        <v>Amaghous</v>
-      </c>
-      <c r="G83" t="str">
-        <v>eau de surface</v>
-      </c>
-      <c r="H83" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="I83" t="str">
-        <v>Tnine aday</v>
-      </c>
-      <c r="J83" t="str">
-        <v>Oued A SEC</v>
-      </c>
-      <c r="K83">
-        <v>481630.683</v>
-      </c>
-      <c r="L83">
-        <v>3288525.087</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>157800</v>
-      </c>
-      <c r="C84">
-        <v>312000</v>
-      </c>
-      <c r="D84" t="str">
-        <v>Forage Haj Yahya Driouch</v>
-      </c>
-      <c r="E84" t="str">
-        <v>NP</v>
-      </c>
-      <c r="F84" t="str">
-        <v>Forage équipé</v>
-      </c>
-      <c r="G84" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H84" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="I84" t="str">
-        <v>Ammeine</v>
-      </c>
-      <c r="J84" t="str">
-        <v>Nom+Coordonnée corrigée remplacer puits chafai Med fermé</v>
-      </c>
-      <c r="K84">
-        <v>505952.371</v>
-      </c>
-      <c r="L84">
-        <v>3292043.738</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>87088</v>
-      </c>
-      <c r="C85">
-        <v>293487</v>
-      </c>
-      <c r="D85" t="str">
-        <v xml:space="preserve">Puits Association Douar Tchira (Reggada) </v>
-      </c>
-      <c r="E85" t="str">
-        <v>1381/78</v>
-      </c>
-      <c r="F85" t="str">
-        <v>Puits équipé</v>
-      </c>
-      <c r="G85" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H85" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="I85" t="str">
-        <v>Reggada</v>
-      </c>
-      <c r="J85" t="str">
-        <v>Nom+Coordonnée corrigée</v>
-      </c>
-      <c r="K85">
-        <v>435851.646</v>
-      </c>
-      <c r="L85">
-        <v>3271338.55</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>81288</v>
-      </c>
-      <c r="C86">
-        <v>305603</v>
-      </c>
-      <c r="D86" t="str">
-        <v>Forage Tiznit Ferme Tacharok</v>
-      </c>
-      <c r="E86" t="str">
-        <v>1203/78</v>
-      </c>
-      <c r="F86" t="str">
-        <v>Forage équipé</v>
-      </c>
-      <c r="G86" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H86" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="I86" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="J86" t="str">
-        <v>Nom+Coordonnée corrigée</v>
-      </c>
-      <c r="K86">
-        <v>429676.987</v>
-      </c>
-      <c r="L86">
-        <v>3283268.431</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>83729</v>
-      </c>
-      <c r="C87">
-        <v>288235</v>
-      </c>
-      <c r="D87" t="str">
-        <v>Station Talaint</v>
-      </c>
-      <c r="E87" t="str">
-        <v>1221/78</v>
-      </c>
-      <c r="F87" t="str">
-        <v>Adoudou</v>
-      </c>
-      <c r="G87" t="str">
-        <v>eau de surface</v>
-      </c>
-      <c r="H87" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="I87" t="str">
-        <v>reggada</v>
-      </c>
-      <c r="J87" t="str">
-        <v>Oued A SEC</v>
-      </c>
-      <c r="K87">
-        <v>432657.811</v>
-      </c>
-      <c r="L87">
-        <v>3265984.319</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>82282</v>
-      </c>
-      <c r="C88">
-        <v>277441</v>
-      </c>
-      <c r="D88" t="str">
-        <v>Puits Commune Sidi Hsain Ouali</v>
-      </c>
-      <c r="E88" t="str">
-        <v>1379/78</v>
-      </c>
-      <c r="F88" t="str">
-        <v>Puits</v>
-      </c>
-      <c r="G88" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H88" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="I88" t="str">
-        <v>Sidi Hsain ouali</v>
-      </c>
-      <c r="J88" t="str">
-        <v>Non+Coordonnée corrigée</v>
-      </c>
-      <c r="K88">
-        <v>431547.909</v>
-      </c>
-      <c r="L88">
-        <v>3255150.196</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>72758</v>
-      </c>
-      <c r="C89">
-        <v>289175</v>
-      </c>
-      <c r="D89" t="str">
-        <v>Puits Commune douar Bounaâmane</v>
-      </c>
-      <c r="E89" t="str">
-        <v>1265/78</v>
-      </c>
-      <c r="F89" t="str">
-        <v>Puits équipé</v>
-      </c>
-      <c r="G89" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H89" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="I89" t="str">
-        <v>Bounaâmane</v>
-      </c>
-      <c r="J89" t="str">
-        <v>Non+Coordonnée corrigée</v>
-      </c>
-      <c r="K89">
-        <v>421662.444</v>
-      </c>
-      <c r="L89">
-        <v>3266582.025</v>
-      </c>
-      <c r="M89" t="str">
-        <v>439/69</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>76780</v>
-      </c>
-      <c r="C90">
-        <v>302215</v>
-      </c>
-      <c r="D90" t="str">
-        <v>Forage Ferme Bouslab Brahim</v>
-      </c>
-      <c r="E90" t="str">
-        <v>1380/70</v>
-      </c>
-      <c r="F90" t="str">
-        <v>Forage équipé</v>
-      </c>
-      <c r="G90" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H90" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="I90" t="str">
-        <v>Reggada</v>
-      </c>
-      <c r="J90" t="str">
-        <v>Non+Coordonnée corrigée</v>
-      </c>
-      <c r="K90">
-        <v>425276.472</v>
-      </c>
-      <c r="L90">
-        <v>3279741.583</v>
-      </c>
-      <c r="M90" t="str">
-        <v>360/61</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>83122</v>
-      </c>
-      <c r="C91">
-        <v>309553</v>
-      </c>
-      <c r="D91" t="str">
-        <v>Forage Station Winxo</v>
-      </c>
-      <c r="E91" t="str">
-        <v>R -1223/78</v>
-      </c>
-      <c r="F91" t="str">
-        <v>Forage équipé</v>
-      </c>
-      <c r="G91" t="str">
-        <v>Eau souterraine</v>
-      </c>
-      <c r="H91" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="I91" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="J91" t="str">
-        <v>Puits abandonné Remplacé par Forage de la Station Winxo</v>
-      </c>
-      <c r="K91">
-        <v>431387.21</v>
-      </c>
-      <c r="L91">
         <v>3287273.744</v>
       </c>
-      <c r="M91" t="str">
+      <c r="M75" t="str">
         <v>004/78</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>135880</v>
-      </c>
-      <c r="C92">
-        <v>414450</v>
-      </c>
-      <c r="D92" t="str">
-        <v xml:space="preserve">Barrage Abdel Moumen </v>
-      </c>
-      <c r="E92" t="str">
-        <v>888/61</v>
-      </c>
-      <c r="F92" t="str">
-        <v>lesen</v>
-      </c>
-      <c r="G92" t="str">
-        <v>Lac et barrage</v>
-      </c>
-      <c r="H92" t="str">
-        <v>Taroudant</v>
-      </c>
-      <c r="I92" t="str">
-        <v>Biggouddine</v>
-      </c>
-      <c r="J92" t="str">
-        <v>niveau (S-M-F)</v>
-      </c>
-      <c r="K92">
-        <v>480857.562</v>
-      </c>
-      <c r="L92">
-        <v>3393754.605</v>
-      </c>
-      <c r="M92" t="str">
-        <v>223/78</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>89450</v>
-      </c>
-      <c r="C93">
-        <v>425350</v>
-      </c>
-      <c r="D93" t="str">
-        <v>Barrage My Abdellah</v>
-      </c>
-      <c r="F93" t="str">
-        <v>Ougar</v>
-      </c>
-      <c r="G93" t="str">
-        <v>Lac et barrage</v>
-      </c>
-      <c r="H93" t="str">
-        <v>Agadir Ida Outanane</v>
-      </c>
-      <c r="I93" t="str">
-        <v>Tamri</v>
-      </c>
-      <c r="J93" t="str">
-        <v>niveau (S-M-F)</v>
-      </c>
-      <c r="K93">
-        <v>434119.293</v>
-      </c>
-      <c r="L93">
-        <v>3403208.303</v>
-      </c>
-      <c r="M93" t="str">
-        <v>314/78</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>141463</v>
-      </c>
-      <c r="C94">
-        <v>345113</v>
-      </c>
-      <c r="D94" t="str">
-        <v>Barrage Ahl Souss</v>
-      </c>
-      <c r="F94" t="str">
-        <v>Izig</v>
-      </c>
-      <c r="G94" t="str">
-        <v>Lac et barrage</v>
-      </c>
-      <c r="H94" t="str">
-        <v>Chtouka Ait Baha</v>
-      </c>
-      <c r="I94" t="str">
-        <v>Ait Mzal</v>
-      </c>
-      <c r="J94" t="str">
-        <v>niveau (S-M-F)</v>
-      </c>
-      <c r="K94">
-        <v>488593.265</v>
-      </c>
-      <c r="L94">
-        <v>3324631.214</v>
-      </c>
-      <c r="M94" t="str">
-        <v>65/79</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>252940</v>
-      </c>
-      <c r="C95">
-        <v>417850</v>
-      </c>
-      <c r="D95" t="str">
-        <v>Barrage Mokhtar Essoussi</v>
-      </c>
-      <c r="F95" t="str">
-        <v>Awziwa</v>
-      </c>
-      <c r="G95" t="str">
-        <v>Lac et barrage</v>
-      </c>
-      <c r="H95" t="str">
-        <v>Taroudant</v>
-      </c>
-      <c r="I95" t="str">
-        <v>Aouzioua</v>
-      </c>
-      <c r="J95" t="str">
-        <v>niveau (S) Barrage inaccessible par zodiac</v>
-      </c>
-      <c r="K95">
-        <v>597737.195</v>
-      </c>
-      <c r="L95">
-        <v>3400808.364</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>260509</v>
-      </c>
-      <c r="C96">
-        <v>429719</v>
-      </c>
-      <c r="D96" t="str">
-        <v>Station Iguidi</v>
-      </c>
-      <c r="E96" t="str">
-        <v>1008/62</v>
-      </c>
-      <c r="F96" t="str">
-        <v>Tifnout</v>
-      </c>
-      <c r="G96" t="str">
-        <v>eau de surface</v>
-      </c>
-      <c r="H96" t="str">
-        <v>Taroudant</v>
-      </c>
-      <c r="I96" t="str">
-        <v>lguidi</v>
-      </c>
-      <c r="J96" t="str">
-        <v>Débit important</v>
-      </c>
-      <c r="K96">
-        <v>604928.845</v>
-      </c>
-      <c r="L96">
-        <v>3412908.435</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>249400</v>
-      </c>
-      <c r="C97">
-        <v>416700</v>
-      </c>
-      <c r="D97" t="str">
-        <v>Station Immerguene</v>
-      </c>
-      <c r="E97" t="str">
-        <v>642/62</v>
-      </c>
-      <c r="F97" t="str">
-        <v>lmmerguene</v>
-      </c>
-      <c r="G97" t="str">
-        <v>eau de surface</v>
-      </c>
-      <c r="H97" t="str">
-        <v>Taroudant</v>
-      </c>
-      <c r="I97" t="str">
-        <v>Ouzioua</v>
-      </c>
-      <c r="J97" t="str">
-        <v>Débit moyen</v>
-      </c>
-      <c r="K97">
-        <v>594235.302</v>
-      </c>
-      <c r="L97">
-        <v>3399547.875</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>238050</v>
-      </c>
-      <c r="C98">
-        <v>413550</v>
-      </c>
-      <c r="D98" t="str">
-        <v>Barrage Aoulouz</v>
-      </c>
-      <c r="E98" t="str">
-        <v>1054/62</v>
-      </c>
-      <c r="F98" t="str">
-        <v>Souss</v>
-      </c>
-      <c r="G98" t="str">
-        <v>Lac et barrage</v>
-      </c>
-      <c r="H98" t="str">
-        <v>Taroudant</v>
-      </c>
-      <c r="I98" t="str">
-        <v>Aoulouz</v>
-      </c>
-      <c r="J98" t="str">
-        <v>niveau (S-M-F) et Barrge Agité</v>
-      </c>
-      <c r="K98">
-        <v>582990.641</v>
-      </c>
-      <c r="L98">
-        <v>3396043.648</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>199800</v>
-      </c>
-      <c r="C99">
-        <v>411530</v>
-      </c>
-      <c r="D99" t="str">
-        <v>Barrage lmi El kheng</v>
-      </c>
-      <c r="F99" t="str">
-        <v>Talekjounte</v>
-      </c>
-      <c r="G99" t="str">
-        <v>Lac et barrage</v>
-      </c>
-      <c r="H99" t="str">
-        <v>Taroudant</v>
-      </c>
-      <c r="I99" t="str">
-        <v>Talgjount</v>
-      </c>
-      <c r="J99" t="str">
-        <v>niveau (S-M-F)</v>
-      </c>
-      <c r="K99">
-        <v>544827.147</v>
-      </c>
-      <c r="L99">
-        <v>3392827.878</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>220110</v>
-      </c>
-      <c r="C100">
-        <v>420330</v>
-      </c>
-      <c r="D100" t="str">
-        <v>Station lamdad</v>
-      </c>
-      <c r="E100" t="str">
-        <v>114/62</v>
-      </c>
-      <c r="F100" t="str">
-        <v>Lamdad</v>
-      </c>
-      <c r="G100" t="str">
-        <v>eau de surface</v>
-      </c>
-      <c r="H100" t="str">
-        <v>Taroudant</v>
-      </c>
-      <c r="I100" t="str">
-        <v>sidi ouaziz</v>
-      </c>
-      <c r="J100" t="str">
-        <v>Débit faible et coordonnée corrigée</v>
-      </c>
-      <c r="K100">
-        <v>564849.119</v>
-      </c>
-      <c r="L100">
-        <v>3402257.483</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>104375</v>
-      </c>
-      <c r="C101">
-        <v>323350</v>
-      </c>
-      <c r="D101" t="str">
-        <v>Barrage Y.B.Tachfine</v>
-      </c>
-      <c r="E101" t="str">
-        <v>2317/79</v>
-      </c>
-      <c r="F101" t="str">
-        <v>Massa</v>
-      </c>
-      <c r="G101" t="str">
-        <v>Lac et barrage</v>
-      </c>
-      <c r="H101" t="str">
-        <v>Tiznit</v>
-      </c>
-      <c r="I101" t="str">
-        <v>Ras mouka</v>
-      </c>
-      <c r="J101" t="str">
-        <v>niveau (S-M-F)</v>
-      </c>
-      <c r="K101">
-        <v>452201</v>
-      </c>
-      <c r="L101">
-        <v>3301725.559</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M75"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>X</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Y</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Station</v>
+      </c>
+      <c r="E1" t="str">
+        <v>IRE</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Oued</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Nature</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Province</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Commune</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Observation</v>
+      </c>
+      <c r="K1" t="str">
+        <v>__EMPTY_2</v>
+      </c>
+      <c r="L1" t="str">
+        <v>latitude</v>
+      </c>
+      <c r="M1" t="str">
+        <v>longitude</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>135880</v>
+      </c>
+      <c r="C2">
+        <v>414450</v>
+      </c>
+      <c r="D2" t="str">
+        <v xml:space="preserve">Barrage Abdel Moumen </v>
+      </c>
+      <c r="E2" t="str">
+        <v>888/61</v>
+      </c>
+      <c r="F2" t="str">
+        <v>lesen</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Lac et barrage</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Biggouddine</v>
+      </c>
+      <c r="J2" t="str">
+        <v>niveau (S-M-F)</v>
+      </c>
+      <c r="K2" t="str">
+        <v>223/78</v>
+      </c>
+      <c r="L2">
+        <v>480857.562</v>
+      </c>
+      <c r="M2">
+        <v>3393754.605</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>89450</v>
+      </c>
+      <c r="C3">
+        <v>425350</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Barrage My Abdellah</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Ougar</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Lac et barrage</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Agadir Ida Outanane</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Tamri</v>
+      </c>
+      <c r="J3" t="str">
+        <v>niveau (S-M-F)</v>
+      </c>
+      <c r="K3" t="str">
+        <v>314/78</v>
+      </c>
+      <c r="L3">
+        <v>434119.293</v>
+      </c>
+      <c r="M3">
+        <v>3403208.303</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>141463</v>
+      </c>
+      <c r="C4">
+        <v>345113</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Barrage Ahl Souss</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Izig</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Lac et barrage</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Chtouka Ait Baha</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Ait Mzal</v>
+      </c>
+      <c r="J4" t="str">
+        <v>niveau (S-M-F)</v>
+      </c>
+      <c r="K4" t="str">
+        <v>65/79</v>
+      </c>
+      <c r="L4">
+        <v>488593.265</v>
+      </c>
+      <c r="M4">
+        <v>3324631.214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>252940</v>
+      </c>
+      <c r="C5">
+        <v>417850</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Barrage Mokhtar Essoussi</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Awziwa</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Lac et barrage</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Aouzioua</v>
+      </c>
+      <c r="J5" t="str">
+        <v>niveau (S) Barrage inaccessible par zodiac</v>
+      </c>
+      <c r="L5">
+        <v>597737.195</v>
+      </c>
+      <c r="M5">
+        <v>3400808.364</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>238050</v>
+      </c>
+      <c r="C6">
+        <v>413550</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Barrage Aoulouz</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1054/62</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Souss</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Lac et barrage</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Aoulouz</v>
+      </c>
+      <c r="J6" t="str">
+        <v>niveau (S-M-F) et Barrge Agité</v>
+      </c>
+      <c r="L6">
+        <v>582990.641</v>
+      </c>
+      <c r="M6">
+        <v>3396043.648</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>199800</v>
+      </c>
+      <c r="C7">
+        <v>411530</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Barrage lmi El kheng</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Talekjounte</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Lac et barrage</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Taroudant</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Talgjount</v>
+      </c>
+      <c r="J7" t="str">
+        <v>niveau (S-M-F)</v>
+      </c>
+      <c r="L7">
+        <v>544827.147</v>
+      </c>
+      <c r="M7">
+        <v>3392827.878</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>104375</v>
+      </c>
+      <c r="C8">
+        <v>323350</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Barrage Y.B.Tachfine</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2317/79</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Massa</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Lac et barrage</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Tiznit</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Ras mouka</v>
+      </c>
+      <c r="J8" t="str">
+        <v>niveau (S-M-F)</v>
+      </c>
+      <c r="L8">
+        <v>452201</v>
+      </c>
+      <c r="M8">
+        <v>3301725.559</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:M8"/>
   </ignoredErrors>
 </worksheet>
 </file>